--- a/evaluations/2.2.xlsx
+++ b/evaluations/2.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="6640" yWindow="3620" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2.2.csv" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>female</t>
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>high instructor evaluation scores</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -95,10 +101,21 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.2.csv'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>high instructor evaluation scores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2.2.csv'!$A$1:$A$2</c:f>
+              <c:f>'2.2.csv'!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -112,7 +129,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.2.csv'!$B$1:$B$2</c:f>
+              <c:f>'2.2.csv'!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -135,11 +152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129067016"/>
-        <c:axId val="2129073496"/>
+        <c:axId val="2121730104"/>
+        <c:axId val="2129533976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129067016"/>
+        <c:axId val="2121730104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -148,7 +165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129073496"/>
+        <c:crossAx val="2129533976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -156,7 +173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129073496"/>
+        <c:axId val="2129533976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -167,7 +184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129067016"/>
+        <c:crossAx val="2121730104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -194,19 +211,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -546,27 +563,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="B1">
-        <v>166</v>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>249</v>
       </c>
     </row>

--- a/evaluations/2.2.xlsx
+++ b/evaluations/2.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="3620" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="4580" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2.2.csv" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>high instructor evaluation scores</t>
+    <t>high instructor evaluation scores (&gt;=3.5)</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>high instructor evaluation scores</c:v>
+                  <c:v>high instructor evaluation scores (&gt;=3.5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -152,11 +152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2121730104"/>
-        <c:axId val="2129533976"/>
+        <c:axId val="2074053304"/>
+        <c:axId val="2073869800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121730104"/>
+        <c:axId val="2074053304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -165,7 +165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129533976"/>
+        <c:crossAx val="2073869800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -173,7 +173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129533976"/>
+        <c:axId val="2073869800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -184,7 +184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121730104"/>
+        <c:crossAx val="2074053304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -566,7 +566,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
